--- a/output/fit_clients/fit_round_206.xlsx
+++ b/output/fit_clients/fit_round_206.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2478709139.283541</v>
+        <v>1709403032.687421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1112950543366024</v>
+        <v>0.07721443163975726</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04159331603470542</v>
+        <v>0.03547020572081894</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1239354629.669466</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1657368332.712533</v>
+        <v>2229462593.409588</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1650499054532611</v>
+        <v>0.1760914860452107</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04024254161890637</v>
+        <v>0.04823194735638069</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>828684153.3312802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4291070328.170768</v>
+        <v>4934073021.191616</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1367087024899745</v>
+        <v>0.1062633828283914</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03090453397407618</v>
+        <v>0.02511036228546656</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2145535198.873698</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3824461711.892474</v>
+        <v>2897247000.823849</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105962498377245</v>
+        <v>0.07464253763131759</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04182743698930402</v>
+        <v>0.03738030020690846</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1912230871.240886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2452307426.579597</v>
+        <v>1905733672.107209</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1229611428366335</v>
+        <v>0.09749780236615448</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04386993316319232</v>
+        <v>0.05682349593888088</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1226153693.917165</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2221443667.849844</v>
+        <v>3110433241.80094</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08255260260494716</v>
+        <v>0.09970399726308481</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04863135861818854</v>
+        <v>0.03247810925851571</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1110721873.719214</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3691459585.318161</v>
+        <v>3201376486.792798</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1332870046872251</v>
+        <v>0.2022608742651661</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03145612806333206</v>
+        <v>0.02503143978060011</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1845729920.833501</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1423568857.724616</v>
+        <v>1730402378.304842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1523087540038418</v>
+        <v>0.1939703770442058</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02364009585776668</v>
+        <v>0.02919099621806286</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>711784535.43442</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3621717035.123348</v>
+        <v>5650679558.995651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.188342105936444</v>
+        <v>0.1525750581958589</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0458174526441527</v>
+        <v>0.04301699496027804</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>87</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1810858510.112553</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2602996952.658494</v>
+        <v>3298665536.201338</v>
       </c>
       <c r="F11" t="n">
-        <v>0.11636907592964</v>
+        <v>0.1449234722630118</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04614700231199942</v>
+        <v>0.04312050743479176</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>85</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1301498391.53682</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2098685857.994035</v>
+        <v>2087984461.007325</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1707922394176682</v>
+        <v>0.1741719016322187</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04799576354650085</v>
+        <v>0.03736809268243239</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>73</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1049342864.462709</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4602054535.614014</v>
+        <v>3593115348.271566</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08861219703768487</v>
+        <v>0.07428065373617454</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02338292828412707</v>
+        <v>0.02968373841862619</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>69</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2301027292.140405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3589599796.121487</v>
+        <v>2980523835.428252</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1743728714650843</v>
+        <v>0.1633041640451922</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03399202546222106</v>
+        <v>0.04349617882275097</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1794799889.778416</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1620082787.363316</v>
+        <v>1290286114.000178</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09378220109054043</v>
+        <v>0.08600100931823422</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03989997629874479</v>
+        <v>0.03181374249302683</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>810041506.3882054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2854617850.441272</v>
+        <v>2117942358.480705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.105381797634892</v>
+        <v>0.106384014898613</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04502328912658041</v>
+        <v>0.0387535044772794</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>31</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1427308924.332547</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4512221165.087218</v>
+        <v>3833545123.389781</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1556161499249509</v>
+        <v>0.1663567997092904</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03435765426948836</v>
+        <v>0.03771565262086533</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>60</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2256110591.827621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2414837723.472821</v>
+        <v>2709925603.388127</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1661734834818882</v>
+        <v>0.142650323652174</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02855946124201842</v>
+        <v>0.02734350569445411</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>68</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1207418934.393142</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1024801154.466683</v>
+        <v>936365821.092858</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1223305066294765</v>
+        <v>0.1702914210302248</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01986401883106167</v>
+        <v>0.01952519311585622</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>512400612.5154084</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2706052768.883689</v>
+        <v>2004035976.958138</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1096909845209739</v>
+        <v>0.1307412603586727</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01952298692898257</v>
+        <v>0.02842362874361418</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1353026335.580708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2255567159.998991</v>
+        <v>2721322974.774698</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06753146898345172</v>
+        <v>0.0630340131332059</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04451784953823547</v>
+        <v>0.0339636836006751</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1127783591.500814</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3360993776.290523</v>
+        <v>3006202101.634438</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1356105862873281</v>
+        <v>0.1266559413420462</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05704382002812843</v>
+        <v>0.0504113668398465</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>57</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1680496928.041919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1479606068.114892</v>
+        <v>1512790701.340268</v>
       </c>
       <c r="F23" t="n">
-        <v>0.174160845713044</v>
+        <v>0.1482327547341437</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03946742268239054</v>
+        <v>0.04927836536066349</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>739803023.4243265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3763699425.132379</v>
+        <v>3491305615.881645</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1026749128552049</v>
+        <v>0.1005668890785411</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02634054899224869</v>
+        <v>0.03324679315595201</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>61</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1881849696.424688</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1268819319.908094</v>
+        <v>1113044188.438782</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07736815009121345</v>
+        <v>0.09481076232631677</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02290720944613195</v>
+        <v>0.02544265135793896</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>634409662.0691859</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>917231993.9998627</v>
+        <v>1055381803.803849</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07604461247113627</v>
+        <v>0.111811192758017</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03025407741148336</v>
+        <v>0.02705360880582221</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>458615948.7847607</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4333207646.310265</v>
+        <v>4548836442.297613</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1156408599794219</v>
+        <v>0.1261884305263279</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02442682387658035</v>
+        <v>0.01881997764395068</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2166603816.736883</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2819251802.005206</v>
+        <v>3735358908.15639</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1155507184588345</v>
+        <v>0.09644617073468394</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03563954961303253</v>
+        <v>0.04590215083313025</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>66</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1409625896.506005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4252956314.22137</v>
+        <v>5603803309.903663</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1145064456414732</v>
+        <v>0.1475664830891768</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04618561001671353</v>
+        <v>0.02904511842814499</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>92</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2126478156.417032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1832918780.703696</v>
+        <v>1957789863.425197</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1399518917747896</v>
+        <v>0.1244696489202179</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02790792511864358</v>
+        <v>0.03752151026089334</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>916459408.76441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1020634927.819869</v>
+        <v>1138942565.96723</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09616275659227609</v>
+        <v>0.08222329419511724</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0392254528414464</v>
+        <v>0.03326517363336003</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>510317457.5810499</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1728245326.48583</v>
+        <v>1597141055.415424</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1038320509847715</v>
+        <v>0.09334949685844263</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02718877451412292</v>
+        <v>0.03090604600709943</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>864122778.8659227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2790421572.595027</v>
+        <v>2006480025.464284</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2080828184804008</v>
+        <v>0.201321286151173</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05585736460272159</v>
+        <v>0.03885796482301244</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>61</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1395210799.746905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1007818230.526013</v>
+        <v>1557915880.055319</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08007901818770553</v>
+        <v>0.09063522763095107</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02493526057111594</v>
+        <v>0.02642902790060225</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>503909151.7908348</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>976990693.0002015</v>
+        <v>1236269205.349672</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08352243230880187</v>
+        <v>0.0954511746977335</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0390792627420616</v>
+        <v>0.0294345062648472</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>488495370.1027235</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3078584350.214081</v>
+        <v>2104064527.053824</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1332436708440526</v>
+        <v>0.1159584604661344</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01786841849192386</v>
+        <v>0.02198126979081789</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>53</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1539292150.713467</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2785054933.486449</v>
+        <v>2708672066.620569</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09889559386180807</v>
+        <v>0.1055168579114729</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03888302438725753</v>
+        <v>0.02796568836894815</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1392527602.003673</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1323722968.123914</v>
+        <v>1886852481.100564</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1147870686252706</v>
+        <v>0.0784260061962568</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03761429387830751</v>
+        <v>0.03666892711454349</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>661861558.2014129</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1858263273.869791</v>
+        <v>1474907552.515214</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1329639669024398</v>
+        <v>0.1560054491923</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02064422640330367</v>
+        <v>0.0247846406278803</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>929131652.9564086</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1537177066.303622</v>
+        <v>1128383096.771785</v>
       </c>
       <c r="F40" t="n">
-        <v>0.160722353601398</v>
+        <v>0.1013156401223854</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05585922483007615</v>
+        <v>0.03654351604379771</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>768588490.0032927</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2629184662.775801</v>
+        <v>2767969107.012029</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1605713313963434</v>
+        <v>0.1302784447738606</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02932972227995164</v>
+        <v>0.02965599348661501</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>51</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1314592343.969223</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2800593281.165761</v>
+        <v>4010868615.252738</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09413843382601442</v>
+        <v>0.1011746204818653</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03277622832052532</v>
+        <v>0.02928938277422196</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>67</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1400296587.273281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2416695616.166214</v>
+        <v>2233577480.437706</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1491195904148243</v>
+        <v>0.1719172109625995</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02538457021579713</v>
+        <v>0.02438637133107199</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>70</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1208347865.103155</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1563786428.915063</v>
+        <v>2022985362.252403</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06392545715419237</v>
+        <v>0.0705471785989268</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02798882651703199</v>
+        <v>0.03463631774454034</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>781893233.7363932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2291427553.327569</v>
+        <v>1804641353.750794</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1769066116787685</v>
+        <v>0.1453722309928697</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05041185908061677</v>
+        <v>0.05125767222758962</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1145713796.910335</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3929126295.892078</v>
+        <v>4041881101.862521</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1551666440660857</v>
+        <v>0.1486220702900845</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05749876801466629</v>
+        <v>0.04876687749077631</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>73</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1964563113.403473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4009106104.423315</v>
+        <v>4648184275.094145</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1977910235654954</v>
+        <v>0.2037341344276536</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05750427750962962</v>
+        <v>0.04560373082358288</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>55</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2004553051.879225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4018135985.229143</v>
+        <v>3603019011.130994</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07835122336324943</v>
+        <v>0.1025942916910518</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03893457475348463</v>
+        <v>0.03594302082877715</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>70</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2009068025.900081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1682638959.397433</v>
+        <v>1271624624.96833</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1283179617783555</v>
+        <v>0.1571887038134296</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03768432185686615</v>
+        <v>0.04400757947966737</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>841319483.2961476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3883024206.738228</v>
+        <v>4012550278.883018</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1565820436874596</v>
+        <v>0.1600233596867804</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04759031953048706</v>
+        <v>0.05041538296577744</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>70</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1941512100.361972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1404227559.161352</v>
+        <v>1028325722.045401</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1620015473406517</v>
+        <v>0.1899318692347774</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03994662169228808</v>
+        <v>0.04664471483170926</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>702113798.0151733</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3798209547.243632</v>
+        <v>3845470656.516726</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09979487656904297</v>
+        <v>0.1384841081578191</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03931184023526349</v>
+        <v>0.06184865735671335</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>85</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1899104841.963533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2529059106.456384</v>
+        <v>3109089734.259669</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1612076983351353</v>
+        <v>0.1671889902235294</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02360407390922221</v>
+        <v>0.03313339640412362</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>59</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1264529618.1235</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3805977770.585194</v>
+        <v>3381562231.097372</v>
       </c>
       <c r="F54" t="n">
-        <v>0.129518185400096</v>
+        <v>0.1539405945757642</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0326251886837902</v>
+        <v>0.05162637077241417</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>68</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1902988934.110024</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4533536556.941418</v>
+        <v>4554394673.885771</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2075220972049257</v>
+        <v>0.2082240906932007</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0302900343889439</v>
+        <v>0.0224717820184757</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2266768276.906566</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1802533948.157106</v>
+        <v>1316361893.069283</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1017513388810698</v>
+        <v>0.1010033395777088</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05021446990592322</v>
+        <v>0.04447971753804234</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>901266971.5019718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3957446573.81406</v>
+        <v>3884484444.473468</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1289536873259581</v>
+        <v>0.1759766902807324</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02267721401447812</v>
+        <v>0.02136874256691327</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>66</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1978723371.677576</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1439542181.552265</v>
+        <v>1552430782.872121</v>
       </c>
       <c r="F58" t="n">
-        <v>0.15238270999745</v>
+        <v>0.1642877733504112</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02964041425706793</v>
+        <v>0.02753619982955571</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>719771127.4203743</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4059679516.340679</v>
+        <v>3266906432.653997</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1108341662744679</v>
+        <v>0.1092478405154627</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04366505780171905</v>
+        <v>0.03943150002087344</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2029839731.217422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2321904966.250373</v>
+        <v>3777788033.305539</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1839128825684758</v>
+        <v>0.130260666540796</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02639663084656473</v>
+        <v>0.02741657547250429</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>64</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1160952482.32666</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2557066068.214837</v>
+        <v>2587314303.016422</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1707865597843779</v>
+        <v>0.1259926429634732</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02224828609387033</v>
+        <v>0.0304648220060972</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1278533056.327728</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1965908824.829064</v>
+        <v>2123148871.127259</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1389346424986872</v>
+        <v>0.1502668108222469</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04298602338123491</v>
+        <v>0.03360443123974011</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>982954465.3668571</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3746417562.8877</v>
+        <v>5410292737.817266</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07437780604704</v>
+        <v>0.1079151454058509</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04211061837651731</v>
+        <v>0.04070258525813953</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>58</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1873208855.114244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3900259495.157945</v>
+        <v>4600928267.193612</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1250641566666433</v>
+        <v>0.1524623829770486</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02590226543944896</v>
+        <v>0.03059344509449761</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>64</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1950129776.406754</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5724065751.362374</v>
+        <v>5632047644.402591</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1547405953909573</v>
+        <v>0.1110681630916062</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02330367877535777</v>
+        <v>0.02253266557469875</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>74</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2862032791.374473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4359472798.499145</v>
+        <v>5226948981.925633</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1110283101261038</v>
+        <v>0.09849334321095078</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04539224423773958</v>
+        <v>0.03718340322385702</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>60</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2179736392.056038</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3017239464.936069</v>
+        <v>3396481650.615149</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06719096283421561</v>
+        <v>0.09564629204185504</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03116807127989443</v>
+        <v>0.04116773539654246</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>66</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1508619749.289306</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4083890453.694301</v>
+        <v>4980630954.830022</v>
       </c>
       <c r="F68" t="n">
-        <v>0.119361063101189</v>
+        <v>0.1228433401356978</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04227621451808325</v>
+        <v>0.04388950747508656</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2041945227.711474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2465440704.388393</v>
+        <v>1637428174.268369</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1323607072929198</v>
+        <v>0.1158784002852821</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0475603385401333</v>
+        <v>0.04096499949878394</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1232720417.311123</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2851641475.907117</v>
+        <v>3577318832.656417</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07421224562820866</v>
+        <v>0.09189944603376843</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03485870485664045</v>
+        <v>0.04204469722927998</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>59</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1425820705.278652</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3455422259.196226</v>
+        <v>4073233841.118479</v>
       </c>
       <c r="F71" t="n">
-        <v>0.17833092941393</v>
+        <v>0.1511896731326325</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02384075017622992</v>
+        <v>0.03416710606063617</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>75</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1727711120.003231</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1496885842.536022</v>
+        <v>1537878108.306962</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09882255891389104</v>
+        <v>0.07097714098225485</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04993923700392824</v>
+        <v>0.05235307349925956</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>748442948.7504889</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3490285256.270362</v>
+        <v>2962088785.994524</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1040105841534476</v>
+        <v>0.0715530635425949</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04380532657858999</v>
+        <v>0.03580447115643236</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>78</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1745142579.209555</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2613503859.173053</v>
+        <v>3946539048.932542</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1853178223293086</v>
+        <v>0.1573150047446716</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02202631784959924</v>
+        <v>0.02811622325702367</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>70</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1306752028.376905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2053731044.705343</v>
+        <v>1695372709.86986</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1242064277373086</v>
+        <v>0.1344756573853446</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02356481151027874</v>
+        <v>0.03150126737055315</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1026865481.481212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4208893655.768895</v>
+        <v>4628659673.811194</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1140946666198886</v>
+        <v>0.1085477590382116</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02837324345680511</v>
+        <v>0.02972905401160493</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2104446821.358236</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1892910540.997277</v>
+        <v>2135976018.786388</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1798877250423605</v>
+        <v>0.155048998931835</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02042079232847033</v>
+        <v>0.02032948320659992</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>946455316.1823671</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3782358856.425318</v>
+        <v>3329514940.444777</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1193911318260242</v>
+        <v>0.1288967621934367</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04518811655915305</v>
+        <v>0.03823878802264469</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>72</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1891179409.496511</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1215754600.495627</v>
+        <v>1776958026.520262</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1410067211113519</v>
+        <v>0.1297829101494952</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03649415029114608</v>
+        <v>0.0248491895412546</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>607877284.7350465</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3912972824.184686</v>
+        <v>5324310724.878489</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08927125774972675</v>
+        <v>0.09524376373017861</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02789441287765719</v>
+        <v>0.0386439089297456</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>43</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1956486407.205075</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4471373927.267627</v>
+        <v>3564669112.309045</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09486190909511076</v>
+        <v>0.09917473385451719</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02881869538125382</v>
+        <v>0.02383446662779334</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2235686944.342754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3508978006.651361</v>
+        <v>4598858742.982281</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1969314095921383</v>
+        <v>0.213400881067213</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02032927728735164</v>
+        <v>0.02613433674435519</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1754489070.46772</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1567523701.293467</v>
+        <v>2248649675.426758</v>
       </c>
       <c r="F83" t="n">
-        <v>0.157313684664513</v>
+        <v>0.108650917540666</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03341462352822424</v>
+        <v>0.04016591277643026</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>783761782.0678155</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1905314175.175999</v>
+        <v>2580114224.391486</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1022161351610121</v>
+        <v>0.1192300746401224</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04385342724524104</v>
+        <v>0.04704063142896694</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>952657106.4208094</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2670425728.088591</v>
+        <v>2604360106.483977</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1717163282638398</v>
+        <v>0.1585423424292072</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05172898577481685</v>
+        <v>0.04534774220402474</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>78</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1335212887.791934</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1865545393.449494</v>
+        <v>2104045109.69774</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1521465987978788</v>
+        <v>0.1350032353073334</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02407160452502917</v>
+        <v>0.02350389372503985</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>932772705.6311601</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1033235187.685383</v>
+        <v>1100271674.616222</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1505770079463252</v>
+        <v>0.1575652768278432</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02724087754372259</v>
+        <v>0.02921438618997995</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>516617606.6837457</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2661391513.211803</v>
+        <v>2304617528.836773</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1283266146413837</v>
+        <v>0.1521884496443923</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02967975077020895</v>
+        <v>0.02492997046699696</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>81</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1330695753.563967</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3317831791.136945</v>
+        <v>3435250345.482906</v>
       </c>
       <c r="F89" t="n">
-        <v>0.130076743531803</v>
+        <v>0.09728741248235818</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03552391163043604</v>
+        <v>0.02673593435958525</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>70</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1658915910.357555</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1831095099.018363</v>
+        <v>1712787822.565803</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08373115262102876</v>
+        <v>0.1025981059089292</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04907690176432077</v>
+        <v>0.05424128926693672</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>915547588.7949433</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1387715043.774561</v>
+        <v>2007955309.409413</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1499628386859375</v>
+        <v>0.1763163981051417</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03781135598841093</v>
+        <v>0.04170444100169744</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>693857575.7452096</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2739761730.172691</v>
+        <v>2078275999.364002</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0717537990867769</v>
+        <v>0.1039525748980003</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02987395509292745</v>
+        <v>0.03552371540099309</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>51</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1369880867.111882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4185696016.10545</v>
+        <v>5022682260.078297</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1326555625469848</v>
+        <v>0.1087986835685381</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04127554281177435</v>
+        <v>0.04070885204333181</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2092847996.656139</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2163442069.791868</v>
+        <v>1802285125.910199</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1443482748166355</v>
+        <v>0.1594983860562983</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04135850513442643</v>
+        <v>0.03531808996765049</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1081721054.478268</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3112710393.007557</v>
+        <v>2720786142.939488</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09896425642273043</v>
+        <v>0.1253857228853997</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04782552869410869</v>
+        <v>0.04467096288734227</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>50</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1556355188.041706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1636966317.930921</v>
+        <v>1944912320.899262</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1100736412445841</v>
+        <v>0.1166667359533449</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04284811886985259</v>
+        <v>0.04316653483251671</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>818483184.6824658</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3274731012.677732</v>
+        <v>3944753599.36534</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1189923597671213</v>
+        <v>0.1180889833300712</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02759488599419079</v>
+        <v>0.02389151970746661</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1637365504.381009</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3732131016.301702</v>
+        <v>3863366123.190959</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08612787221859787</v>
+        <v>0.125861066423564</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02220152307542339</v>
+        <v>0.03235566006537276</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>55</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1866065542.474652</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2263155035.653937</v>
+        <v>2261448964.724633</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1371335719733264</v>
+        <v>0.09981953649347523</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02465558318078278</v>
+        <v>0.02592980037202238</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>64</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1131577450.349873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3294110726.660922</v>
+        <v>4683264200.486106</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1691607349870181</v>
+        <v>0.1746663005652367</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0223541997684173</v>
+        <v>0.01959916003382423</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1647055377.639607</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2768324347.148489</v>
+        <v>3006241454.495366</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1695863661786007</v>
+        <v>0.1492045638409297</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03890828313363756</v>
+        <v>0.04084177949203712</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>83</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1384162231.982148</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_206.xlsx
+++ b/output/fit_clients/fit_round_206.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1709403032.687421</v>
+        <v>1875370844.20609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07721443163975726</v>
+        <v>0.1070304533766309</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03547020572081894</v>
+        <v>0.04234427083129</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2229462593.409588</v>
+        <v>2583855259.279521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1760914860452107</v>
+        <v>0.1330287164458353</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04823194735638069</v>
+        <v>0.04882017918439541</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4934073021.191616</v>
+        <v>4026468736.295689</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1062633828283914</v>
+        <v>0.1498346444154904</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02511036228546656</v>
+        <v>0.0307803614756199</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2897247000.823849</v>
+        <v>3540011960.944676</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07464253763131759</v>
+        <v>0.07247366006123661</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03738030020690846</v>
+        <v>0.05009726157445962</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1905733672.107209</v>
+        <v>2501292199.686267</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09749780236615448</v>
+        <v>0.09732515690711135</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05682349593888088</v>
+        <v>0.03844529630236906</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3110433241.80094</v>
+        <v>2294994783.360109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09970399726308481</v>
+        <v>0.07118091061805208</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03247810925851571</v>
+        <v>0.04147643349582219</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3201376486.792798</v>
+        <v>3836495299.233792</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2022608742651661</v>
+        <v>0.18854715841612</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02503143978060011</v>
+        <v>0.02871433762527262</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1730402378.304842</v>
+        <v>1724181724.032617</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1939703770442058</v>
+        <v>0.1766264878183917</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02919099621806286</v>
+        <v>0.03729226279390709</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5650679558.995651</v>
+        <v>5459315029.926384</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1525750581958589</v>
+        <v>0.1581668234376912</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04301699496027804</v>
+        <v>0.05469136029862646</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3298665536.201338</v>
+        <v>2603738106.510733</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1449234722630118</v>
+        <v>0.1639931578717095</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04312050743479176</v>
+        <v>0.04361169690866946</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2087984461.007325</v>
+        <v>2377042002.454939</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1741719016322187</v>
+        <v>0.1802943802881984</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03736809268243239</v>
+        <v>0.04680865600483353</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3593115348.271566</v>
+        <v>3905831512.981897</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07428065373617454</v>
+        <v>0.06575813728062947</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02968373841862619</v>
+        <v>0.02409725753838794</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2980523835.428252</v>
+        <v>3656258392.346107</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1633041640451922</v>
+        <v>0.1662391136046726</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04349617882275097</v>
+        <v>0.04202738107370443</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1290286114.000178</v>
+        <v>1161986900.238537</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08600100931823422</v>
+        <v>0.08674599398984079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03181374249302683</v>
+        <v>0.03638620169440511</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2117942358.480705</v>
+        <v>2154643649.071841</v>
       </c>
       <c r="F16" t="n">
-        <v>0.106384014898613</v>
+        <v>0.07634920803091212</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0387535044772794</v>
+        <v>0.03816668927534814</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3833545123.389781</v>
+        <v>4066813613.68773</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1663567997092904</v>
+        <v>0.1418980748825424</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03771565262086533</v>
+        <v>0.04246177865849083</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2709925603.388127</v>
+        <v>3228557236.817268</v>
       </c>
       <c r="F18" t="n">
-        <v>0.142650323652174</v>
+        <v>0.1700742017724362</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02734350569445411</v>
+        <v>0.02241197076693811</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>936365821.092858</v>
+        <v>827746933.2783042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1702914210302248</v>
+        <v>0.1601055937440726</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01952519311585622</v>
+        <v>0.01930455232943267</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2004035976.958138</v>
+        <v>2010852206.300658</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1307412603586727</v>
+        <v>0.125452581539739</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02842362874361418</v>
+        <v>0.02727941090872983</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2721322974.774698</v>
+        <v>2085660111.17227</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0630340131332059</v>
+        <v>0.08279176158778523</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0339636836006751</v>
+        <v>0.04176836178876874</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3006202101.634438</v>
+        <v>3171320814.579312</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1266559413420462</v>
+        <v>0.1381409820169238</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0504113668398465</v>
+        <v>0.05576738888060409</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1512790701.340268</v>
+        <v>1360689433.449237</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1482327547341437</v>
+        <v>0.1335376447889572</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04927836536066349</v>
+        <v>0.03962244894776754</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3491305615.881645</v>
+        <v>3670875742.527256</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1005668890785411</v>
+        <v>0.145141305253652</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03324679315595201</v>
+        <v>0.02362263125662398</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1113044188.438782</v>
+        <v>1395248099.017312</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09481076232631677</v>
+        <v>0.07434208455614937</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02544265135793896</v>
+        <v>0.02949134499267317</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1055381803.803849</v>
+        <v>1422144374.254389</v>
       </c>
       <c r="F26" t="n">
-        <v>0.111811192758017</v>
+        <v>0.1067494816249996</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02705360880582221</v>
+        <v>0.02670495955837637</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4548836442.297613</v>
+        <v>2977552081.426764</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1261884305263279</v>
+        <v>0.1318663536768419</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01881997764395068</v>
+        <v>0.01719511692272012</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3735358908.15639</v>
+        <v>2674492044.039898</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09644617073468394</v>
+        <v>0.1403978815814436</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04590215083313025</v>
+        <v>0.03702593786903917</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5603803309.903663</v>
+        <v>3828326637.207741</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1475664830891768</v>
+        <v>0.1233712355625759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02904511842814499</v>
+        <v>0.03389119730396548</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1957789863.425197</v>
+        <v>1535496581.109083</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1244696489202179</v>
+        <v>0.1223835061493446</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03752151026089334</v>
+        <v>0.02752560630290658</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1138942565.96723</v>
+        <v>1163794890.340993</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08222329419511724</v>
+        <v>0.08469354527780629</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03326517363336003</v>
+        <v>0.04590795296605938</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1597141055.415424</v>
+        <v>1808024121.923969</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09334949685844263</v>
+        <v>0.1036232248935054</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03090604600709943</v>
+        <v>0.03137877242406502</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2006480025.464284</v>
+        <v>2303913153.202806</v>
       </c>
       <c r="F33" t="n">
-        <v>0.201321286151173</v>
+        <v>0.1793801644079222</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03885796482301244</v>
+        <v>0.05198912885203377</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1557915880.055319</v>
+        <v>1345775392.486835</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09063522763095107</v>
+        <v>0.1076417524139469</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02642902790060225</v>
+        <v>0.02719508195606879</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1236269205.349672</v>
+        <v>931674306.0083396</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0954511746977335</v>
+        <v>0.0763242920996563</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0294345062648472</v>
+        <v>0.03848544662168344</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2104064527.053824</v>
+        <v>2616836064.265347</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1159584604661344</v>
+        <v>0.1674413623461317</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02198126979081789</v>
+        <v>0.02669907668291441</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2708672066.620569</v>
+        <v>2089845269.715345</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1055168579114729</v>
+        <v>0.0822228150819832</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02796568836894815</v>
+        <v>0.03109314225930528</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1886852481.100564</v>
+        <v>1415261370.859664</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0784260061962568</v>
+        <v>0.1042521081116969</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03666892711454349</v>
+        <v>0.03156909933817305</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1474907552.515214</v>
+        <v>1743439990.545089</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1560054491923</v>
+        <v>0.1453375621072621</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0247846406278803</v>
+        <v>0.0260599257568178</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1128383096.771785</v>
+        <v>1408887569.623731</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1013156401223854</v>
+        <v>0.139390726877773</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03654351604379771</v>
+        <v>0.05783344841091426</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2767969107.012029</v>
+        <v>2702845426.698656</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1302784447738606</v>
+        <v>0.1539117269249855</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02965599348661501</v>
+        <v>0.0469297571149308</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4010868615.252738</v>
+        <v>3686730030.578752</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1011746204818653</v>
+        <v>0.1101944694629106</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02928938277422196</v>
+        <v>0.03717852678764459</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2233577480.437706</v>
+        <v>2646353688.600185</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1719172109625995</v>
+        <v>0.1628436156008248</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02438637133107199</v>
+        <v>0.01819003338437218</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2022985362.252403</v>
+        <v>2190838232.726594</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0705471785989268</v>
+        <v>0.1027015959123907</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03463631774454034</v>
+        <v>0.02250757699914346</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1804641353.750794</v>
+        <v>2052634835.26981</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1453722309928697</v>
+        <v>0.1440349756363408</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05125767222758962</v>
+        <v>0.04699519346462599</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4041881101.862521</v>
+        <v>5061852006.036613</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1486220702900845</v>
+        <v>0.1759482532351629</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04876687749077631</v>
+        <v>0.04107725024279481</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4648184275.094145</v>
+        <v>3889359111.131124</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2037341344276536</v>
+        <v>0.1657920738500029</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04560373082358288</v>
+        <v>0.04922614740355533</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3603019011.130994</v>
+        <v>2861524590.971595</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1025942916910518</v>
+        <v>0.1079645162022897</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03594302082877715</v>
+        <v>0.0319568671409303</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1271624624.96833</v>
+        <v>1749828147.761042</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1571887038134296</v>
+        <v>0.1858712282102577</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04400757947966737</v>
+        <v>0.03181812879711452</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4012550278.883018</v>
+        <v>3472028307.810401</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1600233596867804</v>
+        <v>0.1287098590307654</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05041538296577744</v>
+        <v>0.04685377137314801</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1028325722.045401</v>
+        <v>1093481035.966858</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1899318692347774</v>
+        <v>0.1212559526301614</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04664471483170926</v>
+        <v>0.03709509228010987</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3845470656.516726</v>
+        <v>4122560792.390817</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1384841081578191</v>
+        <v>0.1092717592385549</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06184865735671335</v>
+        <v>0.04428192332675142</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3109089734.259669</v>
+        <v>3496179263.223668</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1671889902235294</v>
+        <v>0.1246407227216329</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03313339640412362</v>
+        <v>0.03008057282639859</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3381562231.097372</v>
+        <v>3217655336.790839</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1539405945757642</v>
+        <v>0.1622776450143286</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05162637077241417</v>
+        <v>0.03231002583012625</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4554394673.885771</v>
+        <v>4193426866.988697</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2082240906932007</v>
+        <v>0.1909683295445338</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0224717820184757</v>
+        <v>0.03153332495832229</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1316361893.069283</v>
+        <v>1793810387.237258</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1010033395777088</v>
+        <v>0.147518965086387</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04447971753804234</v>
+        <v>0.04669598662683783</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3884484444.473468</v>
+        <v>3662186886.135948</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1759766902807324</v>
+        <v>0.1115492730997557</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02136874256691327</v>
+        <v>0.02081215185788461</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1552430782.872121</v>
+        <v>1233543190.99267</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1642877733504112</v>
+        <v>0.1362966567504674</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02753619982955571</v>
+        <v>0.03495927461235983</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3266906432.653997</v>
+        <v>4566299444.147779</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1092478405154627</v>
+        <v>0.1307644896759651</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03943150002087344</v>
+        <v>0.04648780938168155</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3777788033.305539</v>
+        <v>3334116016.998685</v>
       </c>
       <c r="F60" t="n">
-        <v>0.130260666540796</v>
+        <v>0.1330945624989259</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02741657547250429</v>
+        <v>0.02454195095000766</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2587314303.016422</v>
+        <v>2858147308.286437</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1259926429634732</v>
+        <v>0.1739220093147855</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0304648220060972</v>
+        <v>0.02098015022570728</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2123148871.127259</v>
+        <v>1654902499.85185</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1502668108222469</v>
+        <v>0.1219147852085358</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03360443123974011</v>
+        <v>0.03808525264314944</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5410292737.817266</v>
+        <v>4130211954.529404</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1079151454058509</v>
+        <v>0.07563215827541771</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04070258525813953</v>
+        <v>0.04316012222670911</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4600928267.193612</v>
+        <v>4571131656.240853</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1524623829770486</v>
+        <v>0.1797024939974504</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03059344509449761</v>
+        <v>0.02970681908946334</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5632047644.402591</v>
+        <v>4878912434.78765</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1110681630916062</v>
+        <v>0.1408065549472511</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02253266557469875</v>
+        <v>0.02492096368953876</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5226948981.925633</v>
+        <v>5625938413.720729</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09849334321095078</v>
+        <v>0.1396774648037864</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03718340322385702</v>
+        <v>0.0458114437007006</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3396481650.615149</v>
+        <v>2906936871.243124</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09564629204185504</v>
+        <v>0.09642799557425845</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04116773539654246</v>
+        <v>0.03967521034642316</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4980630954.830022</v>
+        <v>4482964645.782415</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1228433401356978</v>
+        <v>0.1256140433168184</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04388950747508656</v>
+        <v>0.04760435498356887</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1637428174.268369</v>
+        <v>1511265251.926832</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1158784002852821</v>
+        <v>0.134694025041637</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04096499949878394</v>
+        <v>0.05227285042462608</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3577318832.656417</v>
+        <v>3580857672.406773</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09189944603376843</v>
+        <v>0.06737134643655011</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04204469722927998</v>
+        <v>0.03098216766502682</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4073233841.118479</v>
+        <v>5323057532.348709</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1511896731326325</v>
+        <v>0.1693070256755255</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03416710606063617</v>
+        <v>0.02577188414119945</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1537878108.306962</v>
+        <v>2100903683.427944</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07097714098225485</v>
+        <v>0.06726304346823107</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05235307349925956</v>
+        <v>0.03841358607493937</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2962088785.994524</v>
+        <v>2491618160.473793</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0715530635425949</v>
+        <v>0.07157682392278215</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03580447115643236</v>
+        <v>0.04731419674093348</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3946539048.932542</v>
+        <v>3804735320.10366</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1573150047446716</v>
+        <v>0.1280815434314732</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02811622325702367</v>
+        <v>0.02293304061155777</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1695372709.86986</v>
+        <v>2461815102.617827</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1344756573853446</v>
+        <v>0.153796981456121</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03150126737055315</v>
+        <v>0.03253375529479449</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4628659673.811194</v>
+        <v>4025029094.122944</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1085477590382116</v>
+        <v>0.09966201720393575</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02972905401160493</v>
+        <v>0.02368084921641113</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2135976018.786388</v>
+        <v>1856656732.000036</v>
       </c>
       <c r="F77" t="n">
-        <v>0.155048998931835</v>
+        <v>0.1328084933233683</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02032948320659992</v>
+        <v>0.03098698642946731</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3329514940.444777</v>
+        <v>3416461283.702584</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1288967621934367</v>
+        <v>0.1210039557625322</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03823878802264469</v>
+        <v>0.05083429828837623</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1776958026.520262</v>
+        <v>1785977871.257375</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1297829101494952</v>
+        <v>0.153377984674099</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0248491895412546</v>
+        <v>0.02462484367791612</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5324310724.878489</v>
+        <v>5594264815.55764</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09524376373017861</v>
+        <v>0.1006497677625085</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0386439089297456</v>
+        <v>0.02950056254661101</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3564669112.309045</v>
+        <v>4740048610.603105</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09917473385451719</v>
+        <v>0.1003385112432506</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02383446662779334</v>
+        <v>0.02266042730494977</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4598858742.982281</v>
+        <v>5256381637.205116</v>
       </c>
       <c r="F82" t="n">
-        <v>0.213400881067213</v>
+        <v>0.1391742611807683</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02613433674435519</v>
+        <v>0.02880499649362784</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2248649675.426758</v>
+        <v>1660660276.872881</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108650917540666</v>
+        <v>0.1283879426966197</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04016591277643026</v>
+        <v>0.03554712299888055</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2580114224.391486</v>
+        <v>1570906860.812273</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1192300746401224</v>
+        <v>0.08847553066510959</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04704063142896694</v>
+        <v>0.05139621188100486</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2604360106.483977</v>
+        <v>2674896041.576044</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1585423424292072</v>
+        <v>0.1261809923198923</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04534774220402474</v>
+        <v>0.0394822523043868</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2104045109.69774</v>
+        <v>2438242209.744273</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1350032353073334</v>
+        <v>0.1655837282673988</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02350389372503985</v>
+        <v>0.01921946295752204</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1100271674.616222</v>
+        <v>1091728046.446613</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1575652768278432</v>
+        <v>0.1461071232960114</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02921438618997995</v>
+        <v>0.04223435342657456</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2304617528.836773</v>
+        <v>3024096590.178544</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1521884496443923</v>
+        <v>0.1369072379143871</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02492997046699696</v>
+        <v>0.03045485691526191</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3435250345.482906</v>
+        <v>2766759861.299243</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09728741248235818</v>
+        <v>0.1571145765853606</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02673593435958525</v>
+        <v>0.02617496455150632</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1712787822.565803</v>
+        <v>1671594060.450637</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1025981059089292</v>
+        <v>0.1072234727087233</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05424128926693672</v>
+        <v>0.04132262089850357</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2007955309.409413</v>
+        <v>1900415158.49368</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1763163981051417</v>
+        <v>0.1511362515308975</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04170444100169744</v>
+        <v>0.05681290887059377</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2078275999.364002</v>
+        <v>1999364419.640786</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1039525748980003</v>
+        <v>0.08097939326711957</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03552371540099309</v>
+        <v>0.03020013093132351</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5022682260.078297</v>
+        <v>4638655232.745638</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1087986835685381</v>
+        <v>0.1408835657935745</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04070885204333181</v>
+        <v>0.04648075207003299</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1802285125.910199</v>
+        <v>2003067716.418663</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1594983860562983</v>
+        <v>0.1068431136210746</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03531808996765049</v>
+        <v>0.02872165640935431</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2720786142.939488</v>
+        <v>1995516583.829533</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1253857228853997</v>
+        <v>0.116269821722526</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04467096288734227</v>
+        <v>0.03300881997861587</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1944912320.899262</v>
+        <v>2328057844.427733</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1166667359533449</v>
+        <v>0.1195311470043242</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04316653483251671</v>
+        <v>0.04423354725768232</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3944753599.36534</v>
+        <v>4452508437.52833</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1180889833300712</v>
+        <v>0.1241361940218707</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02389151970746661</v>
+        <v>0.02612605427182091</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3863366123.190959</v>
+        <v>3577234351.62651</v>
       </c>
       <c r="F98" t="n">
-        <v>0.125861066423564</v>
+        <v>0.09189261263667618</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03235566006537276</v>
+        <v>0.02566999242433234</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2261448964.724633</v>
+        <v>3000986404.029341</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09981953649347523</v>
+        <v>0.09186253834076653</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02592980037202238</v>
+        <v>0.03375528180782845</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4683264200.486106</v>
+        <v>3118927274.259789</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1746663005652367</v>
+        <v>0.1296916797429163</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01959916003382423</v>
+        <v>0.02342893083239479</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3006241454.495366</v>
+        <v>2254861752.654487</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1492045638409297</v>
+        <v>0.1489342458630049</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04084177949203712</v>
+        <v>0.0526824815773861</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_206.xlsx
+++ b/output/fit_clients/fit_round_206.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1875370844.20609</v>
+        <v>2350057148.658657</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1070304533766309</v>
+        <v>0.08488328187938075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04234427083129</v>
+        <v>0.03220593199652205</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2583855259.279521</v>
+        <v>2619547332.244174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1330287164458353</v>
+        <v>0.1749670663616591</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04882017918439541</v>
+        <v>0.04425356642759341</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4026468736.295689</v>
+        <v>3319682627.810524</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1498346444154904</v>
+        <v>0.1271143776819118</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0307803614756199</v>
+        <v>0.03152615893737053</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>113</v>
+      </c>
+      <c r="J4" t="n">
+        <v>205</v>
+      </c>
+      <c r="K4" t="n">
+        <v>93.24348030769559</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3540011960.944676</v>
+        <v>4177493005.129002</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07247366006123661</v>
+        <v>0.1054807893644555</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05009726157445962</v>
+        <v>0.03147866819538597</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>206</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2501292199.686267</v>
+        <v>2573472847.50925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09732515690711135</v>
+        <v>0.1159381388385353</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03844529630236906</v>
+        <v>0.0481322433231009</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2294994783.360109</v>
+        <v>2319793749.513272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07118091061805208</v>
+        <v>0.08695869484873596</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04147643349582219</v>
+        <v>0.03093774005792317</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3836495299.233792</v>
+        <v>3536955016.188301</v>
       </c>
       <c r="F8" t="n">
-        <v>0.18854715841612</v>
+        <v>0.1732068085991249</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02871433762527262</v>
+        <v>0.02655076209604531</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>57</v>
+      </c>
+      <c r="J8" t="n">
+        <v>206</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1724181724.032617</v>
+        <v>2239832859.125173</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1766264878183917</v>
+        <v>0.1862566834668632</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03729226279390709</v>
+        <v>0.03312918520355688</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5459315029.926384</v>
+        <v>4992262383.90803</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1581668234376912</v>
+        <v>0.1804045912209673</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05469136029862646</v>
+        <v>0.04553419443855144</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>188</v>
+      </c>
+      <c r="J10" t="n">
+        <v>206</v>
+      </c>
+      <c r="K10" t="n">
+        <v>126.5740652545522</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2603738106.510733</v>
+        <v>3693106502.350317</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1639931578717095</v>
+        <v>0.1616592030704638</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04361169690866946</v>
+        <v>0.03370341771200485</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>206</v>
+      </c>
+      <c r="K11" t="n">
+        <v>127.1176626431693</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2377042002.454939</v>
+        <v>2671026028.733236</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1802943802881984</v>
+        <v>0.1505396852604763</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04680865600483353</v>
+        <v>0.03402451037342891</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3905831512.981897</v>
+        <v>5124869786.097807</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06575813728062947</v>
+        <v>0.0625689375880311</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02409725753838794</v>
+        <v>0.02461528830339464</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>102</v>
+      </c>
+      <c r="J13" t="n">
+        <v>206</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3656258392.346107</v>
+        <v>3301277417.280637</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1662391136046726</v>
+        <v>0.1671509089263145</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04202738107370443</v>
+        <v>0.04413483010328893</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="n">
+        <v>205</v>
+      </c>
+      <c r="K14" t="n">
+        <v>95.50660273556974</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1161986900.238537</v>
+        <v>1308893946.9833</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08674599398984079</v>
+        <v>0.1001800144952498</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03638620169440511</v>
+        <v>0.04766311589457733</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2154643649.071841</v>
+        <v>2299759136.57003</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07634920803091212</v>
+        <v>0.09707169872201997</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03816668927534814</v>
+        <v>0.046797702235033</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4066813613.68773</v>
+        <v>3599976231.864644</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1418980748825424</v>
+        <v>0.1684337223907034</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04246177865849083</v>
+        <v>0.0455173558080189</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>99</v>
+      </c>
+      <c r="J17" t="n">
+        <v>205</v>
+      </c>
+      <c r="K17" t="n">
+        <v>102.7158888225059</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3228557236.817268</v>
+        <v>2538540962.783628</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1700742017724362</v>
+        <v>0.1507988714717142</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02241197076693811</v>
+        <v>0.02083750767649036</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>201</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>827746933.2783042</v>
+        <v>1172317973.198823</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1601055937440726</v>
+        <v>0.142461599898456</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01930455232943267</v>
+        <v>0.02405846129120208</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2010852206.300658</v>
+        <v>2217657284.08314</v>
       </c>
       <c r="F20" t="n">
-        <v>0.125452581539739</v>
+        <v>0.143060102271992</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02727941090872983</v>
+        <v>0.03080865445119192</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2085660111.17227</v>
+        <v>2219886874.296973</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08279176158778523</v>
+        <v>0.08612111827911673</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04176836178876874</v>
+        <v>0.04524210036602753</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3171320814.579312</v>
+        <v>3738212042.647965</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1381409820169238</v>
+        <v>0.09864539078124231</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05576738888060409</v>
+        <v>0.04203992362655508</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>53</v>
+      </c>
+      <c r="J22" t="n">
+        <v>205</v>
+      </c>
+      <c r="K22" t="n">
+        <v>107.9065489969842</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1360689433.449237</v>
+        <v>1357198968.317494</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1335376447889572</v>
+        <v>0.1851385686604852</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03962244894776754</v>
+        <v>0.04227732216807888</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3670875742.527256</v>
+        <v>3385062489.259256</v>
       </c>
       <c r="F24" t="n">
-        <v>0.145141305253652</v>
+        <v>0.1155304147577635</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02362263125662398</v>
+        <v>0.03252770245950404</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>64</v>
+      </c>
+      <c r="J24" t="n">
+        <v>203</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1395248099.017312</v>
+        <v>907902987.76389</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07434208455614937</v>
+        <v>0.0962077143835756</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02949134499267317</v>
+        <v>0.02591656880996651</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1422144374.254389</v>
+        <v>1313102336.182986</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1067494816249996</v>
+        <v>0.1065747428001026</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02670495955837637</v>
+        <v>0.02380091600930797</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2977552081.426764</v>
+        <v>3642853632.812748</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1318663536768419</v>
+        <v>0.1463510919529449</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01719511692272012</v>
+        <v>0.019788543963436</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>81</v>
+      </c>
+      <c r="J27" t="n">
+        <v>206</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2674492044.039898</v>
+        <v>2759918914.176513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1403978815814436</v>
+        <v>0.1309558911605903</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03702593786903917</v>
+        <v>0.04800597092859119</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3828326637.207741</v>
+        <v>4602340919.691696</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1233712355625759</v>
+        <v>0.09952577630753277</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03389119730396548</v>
+        <v>0.03644229295505792</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>195</v>
+      </c>
+      <c r="J29" t="n">
+        <v>206</v>
+      </c>
+      <c r="K29" t="n">
+        <v>132.402677801303</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1535496581.109083</v>
+        <v>2313010675.06971</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1223835061493446</v>
+        <v>0.1265509670959933</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02752560630290658</v>
+        <v>0.03606743246040278</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1163794890.340993</v>
+        <v>979998631.9925922</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08469354527780629</v>
+        <v>0.1074342817672715</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04590795296605938</v>
+        <v>0.03529602004176766</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1808024121.923969</v>
+        <v>1890976969.416463</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1036232248935054</v>
+        <v>0.107261933988069</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03137877242406502</v>
+        <v>0.02779344890369325</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2303913153.202806</v>
+        <v>2693385524.861625</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1793801644079222</v>
+        <v>0.1382702134402714</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05198912885203377</v>
+        <v>0.04587443200965245</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1345775392.486835</v>
+        <v>1354455152.000895</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1076417524139469</v>
+        <v>0.08482223906842686</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02719508195606879</v>
+        <v>0.02838779528067882</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>931674306.0083396</v>
+        <v>1364879764.707689</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0763242920996563</v>
+        <v>0.07130917592429648</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03848544662168344</v>
+        <v>0.03282475454908272</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2616836064.265347</v>
+        <v>2424806342.896146</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1674413623461317</v>
+        <v>0.180500782822617</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02669907668291441</v>
+        <v>0.02476945008660241</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2089845269.715345</v>
+        <v>2066577764.908917</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0822228150819832</v>
+        <v>0.07755904533430963</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03109314225930528</v>
+        <v>0.03741350565247661</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1415261370.859664</v>
+        <v>1939163470.908685</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1042521081116969</v>
+        <v>0.1020502328404849</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03156909933817305</v>
+        <v>0.03880876156133246</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1743439990.545089</v>
+        <v>1633056275.026092</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1453375621072621</v>
+        <v>0.1578368391440895</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0260599257568178</v>
+        <v>0.02537185483369143</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1408887569.623731</v>
+        <v>1304725940.081303</v>
       </c>
       <c r="F40" t="n">
-        <v>0.139390726877773</v>
+        <v>0.1211573162483193</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05783344841091426</v>
+        <v>0.04684746453980299</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2702845426.698656</v>
+        <v>2603859023.186834</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1539117269249855</v>
+        <v>0.1204144252702862</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0469297571149308</v>
+        <v>0.03979003285404412</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3686730030.578752</v>
+        <v>3253079943.014401</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1101944694629106</v>
+        <v>0.1072563183393341</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03717852678764459</v>
+        <v>0.0358404929076041</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>81</v>
+      </c>
+      <c r="J42" t="n">
+        <v>202</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2646353688.600185</v>
+        <v>2620591948.026299</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1628436156008248</v>
+        <v>0.1985227790429338</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01819003338437218</v>
+        <v>0.02097456376544655</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2190838232.726594</v>
+        <v>1484204038.995451</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1027015959123907</v>
+        <v>0.1022785304740911</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02250757699914346</v>
+        <v>0.03343911383453495</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2052634835.26981</v>
+        <v>1807983981.202396</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1440349756363408</v>
+        <v>0.1270939988673231</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04699519346462599</v>
+        <v>0.05599499896265764</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5061852006.036613</v>
+        <v>5222257320.261909</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1759482532351629</v>
+        <v>0.1279538812846346</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04107725024279481</v>
+        <v>0.05372177948044226</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>118</v>
+      </c>
+      <c r="J46" t="n">
+        <v>205</v>
+      </c>
+      <c r="K46" t="n">
+        <v>119.4167940071384</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3889359111.131124</v>
+        <v>4696818963.545244</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1657920738500029</v>
+        <v>0.2021532657631328</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04922614740355533</v>
+        <v>0.05732171260475072</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>92</v>
+      </c>
+      <c r="J47" t="n">
+        <v>206</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2861524590.971595</v>
+        <v>3701288331.50104</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1079645162022897</v>
+        <v>0.07160505194105472</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0319568671409303</v>
+        <v>0.03248940483139044</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>101</v>
+      </c>
+      <c r="J48" t="n">
+        <v>206</v>
+      </c>
+      <c r="K48" t="n">
+        <v>122.3828096903879</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1749828147.761042</v>
+        <v>1681327091.746468</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1858712282102577</v>
+        <v>0.1694619200579896</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03181812879711452</v>
+        <v>0.03053812907605871</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2199,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3472028307.810401</v>
+        <v>4132709188.05244</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1287098590307654</v>
+        <v>0.1617106608486689</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04685377137314801</v>
+        <v>0.03753790569405242</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>65</v>
+      </c>
+      <c r="J50" t="n">
+        <v>206</v>
+      </c>
+      <c r="K50" t="n">
+        <v>120.4971435360045</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1093481035.966858</v>
+        <v>1082989863.031133</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1212559526301614</v>
+        <v>0.1543812564690474</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03709509228010987</v>
+        <v>0.05145975212037383</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4122560792.390817</v>
+        <v>3529650926.496339</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1092717592385549</v>
+        <v>0.09333290657801478</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04428192332675142</v>
+        <v>0.03875276893410312</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>140</v>
+      </c>
+      <c r="J52" t="n">
+        <v>206</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3496179263.223668</v>
+        <v>2376508425.202574</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1246407227216329</v>
+        <v>0.1253814111850684</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03008057282639859</v>
+        <v>0.02873211920688059</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="n">
+        <v>45.72207367484879</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3217655336.790839</v>
+        <v>3016495155.886723</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1622776450143286</v>
+        <v>0.1320223160887307</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03231002583012625</v>
+        <v>0.04303775073205361</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>107</v>
+      </c>
+      <c r="J54" t="n">
+        <v>205</v>
+      </c>
+      <c r="K54" t="n">
+        <v>79.76847887424199</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4193426866.988697</v>
+        <v>4329451428.885482</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1909683295445338</v>
+        <v>0.1886495488988929</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03153332495832229</v>
+        <v>0.03263613022925631</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>92</v>
+      </c>
+      <c r="J55" t="n">
+        <v>205</v>
+      </c>
+      <c r="K55" t="n">
+        <v>114.5871573713798</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2417,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1793810387.237258</v>
+        <v>1878999844.585573</v>
       </c>
       <c r="F56" t="n">
-        <v>0.147518965086387</v>
+        <v>0.139730069465311</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04669598662683783</v>
+        <v>0.05585307862145962</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2452,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3662186886.135948</v>
+        <v>2890172900.450166</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1115492730997557</v>
+        <v>0.152994336414868</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02081215185788461</v>
+        <v>0.01813251328970753</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>81</v>
+      </c>
+      <c r="J57" t="n">
+        <v>202</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1233543190.99267</v>
+        <v>1205179662.672874</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1362966567504674</v>
+        <v>0.1443058204122727</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03495927461235983</v>
+        <v>0.03538901666789681</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4566299444.147779</v>
+        <v>4002448387.052131</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1307644896759651</v>
+        <v>0.08416988068089525</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04648780938168155</v>
+        <v>0.04255119307958504</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>99</v>
+      </c>
+      <c r="J59" t="n">
+        <v>206</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3334116016.998685</v>
+        <v>2567966913.012753</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1330945624989259</v>
+        <v>0.1284996292597852</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02454195095000766</v>
+        <v>0.02225319040689732</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2858147308.286437</v>
+        <v>2554462887.213843</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1739220093147855</v>
+        <v>0.1502047124187737</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02098015022570728</v>
+        <v>0.02984725335874027</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1654902499.85185</v>
+        <v>1288649093.393834</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1219147852085358</v>
+        <v>0.1897982209452136</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03808525264314944</v>
+        <v>0.03594187824939608</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4130211954.529404</v>
+        <v>3841815345.81014</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07563215827541771</v>
+        <v>0.09824506586626289</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04316012222670911</v>
+        <v>0.04574756202260263</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>100</v>
+      </c>
+      <c r="J63" t="n">
+        <v>206</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4571131656.240853</v>
+        <v>4820715692.647319</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1797024939974504</v>
+        <v>0.120854180974474</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02970681908946334</v>
+        <v>0.02598155462021059</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>101</v>
+      </c>
+      <c r="J64" t="n">
+        <v>206</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4878912434.78765</v>
+        <v>5076696452.592999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1408065549472511</v>
+        <v>0.1501144448148004</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02492096368953876</v>
+        <v>0.03094635563265043</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>165</v>
+      </c>
+      <c r="J65" t="n">
+        <v>205</v>
+      </c>
+      <c r="K65" t="n">
+        <v>120.3143392437293</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5625938413.720729</v>
+        <v>5175794045.028843</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1396774648037864</v>
+        <v>0.1279096733746911</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0458114437007006</v>
+        <v>0.0406443712095793</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>101</v>
+      </c>
+      <c r="J66" t="n">
+        <v>206</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2906936871.243124</v>
+        <v>2476052504.911993</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09642799557425845</v>
+        <v>0.06825320794805775</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03967521034642316</v>
+        <v>0.04662014683074588</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4482964645.782415</v>
+        <v>4339216013.960426</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1256140433168184</v>
+        <v>0.1008882316637562</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04760435498356887</v>
+        <v>0.03971717721997917</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>104</v>
+      </c>
+      <c r="J68" t="n">
+        <v>205</v>
+      </c>
+      <c r="K68" t="n">
+        <v>115.1753554500157</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1511265251.926832</v>
+        <v>2220915918.139839</v>
       </c>
       <c r="F69" t="n">
-        <v>0.134694025041637</v>
+        <v>0.152506440189722</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05227285042462608</v>
+        <v>0.0568812829843516</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3580857672.406773</v>
+        <v>3717410406.740903</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06737134643655011</v>
+        <v>0.06919622098533931</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03098216766502682</v>
+        <v>0.04547566825539535</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>31</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5323057532.348709</v>
+        <v>3510106344.245569</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1693070256755255</v>
+        <v>0.1159208822501263</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02577188414119945</v>
+        <v>0.02965776593876047</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>158</v>
+      </c>
+      <c r="J71" t="n">
+        <v>205</v>
+      </c>
+      <c r="K71" t="n">
+        <v>108.3376932645607</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2100903683.427944</v>
+        <v>1403650061.131201</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06726304346823107</v>
+        <v>0.07328933514810443</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03841358607493937</v>
+        <v>0.04632911456595153</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2491618160.473793</v>
+        <v>2821657124.805089</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07157682392278215</v>
+        <v>0.06811987237902851</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04731419674093348</v>
+        <v>0.05028220808869133</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3804735320.10366</v>
+        <v>3575257013.305392</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1280815434314732</v>
+        <v>0.1706819641320138</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02293304061155777</v>
+        <v>0.03100301400169049</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>60</v>
+      </c>
+      <c r="J74" t="n">
+        <v>206</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2461815102.617827</v>
+        <v>1766055938.690156</v>
       </c>
       <c r="F75" t="n">
-        <v>0.153796981456121</v>
+        <v>0.160221915007202</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03253375529479449</v>
+        <v>0.03675294888541396</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4025029094.122944</v>
+        <v>4969491541.773275</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09966201720393575</v>
+        <v>0.07930475812279091</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02368084921641113</v>
+        <v>0.02252002681208996</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>94</v>
+      </c>
+      <c r="J76" t="n">
+        <v>206</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1856656732.000036</v>
+        <v>2093696218.829375</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1328084933233683</v>
+        <v>0.1202444963646063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03098698642946731</v>
+        <v>0.02567616248013687</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3416461283.702584</v>
+        <v>3636982520.145754</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1210039557625322</v>
+        <v>0.1133792568601618</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05083429828837623</v>
+        <v>0.04107527544261944</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>103</v>
+      </c>
+      <c r="J78" t="n">
+        <v>205</v>
+      </c>
+      <c r="K78" t="n">
+        <v>116.0096850134221</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1785977871.257375</v>
+        <v>1382606863.869972</v>
       </c>
       <c r="F79" t="n">
-        <v>0.153377984674099</v>
+        <v>0.1194486168824568</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02462484367791612</v>
+        <v>0.02872625811188617</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5594264815.55764</v>
+        <v>3526950554.711946</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1006497677625085</v>
+        <v>0.07092176244221267</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02950056254661101</v>
+        <v>0.02968965225738034</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>100</v>
+      </c>
+      <c r="J80" t="n">
+        <v>204</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4740048610.603105</v>
+        <v>4833461246.555378</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1003385112432506</v>
+        <v>0.09986009401510382</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02266042730494977</v>
+        <v>0.03053885920621956</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>95</v>
+      </c>
+      <c r="J81" t="n">
+        <v>205</v>
+      </c>
+      <c r="K81" t="n">
+        <v>103.004152974758</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5256381637.205116</v>
+        <v>5173522226.137059</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1391742611807683</v>
+        <v>0.166366096769591</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02880499649362784</v>
+        <v>0.02757663766400851</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>152</v>
+      </c>
+      <c r="J82" t="n">
+        <v>206</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1660660276.872881</v>
+        <v>2396898947.123626</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1283879426966197</v>
+        <v>0.1576242869464856</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03554712299888055</v>
+        <v>0.03808051462852653</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1570906860.812273</v>
+        <v>2548548887.060055</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08847553066510959</v>
+        <v>0.09934144530746926</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05139621188100486</v>
+        <v>0.05019680662217447</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2674896041.576044</v>
+        <v>3420191586.752285</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1261809923198923</v>
+        <v>0.1368071702478592</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0394822523043868</v>
+        <v>0.04895713652058799</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="n">
+        <v>112.5140834489438</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2438242209.744273</v>
+        <v>2425988128.385527</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1655837282673988</v>
+        <v>0.1459566668130773</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01921946295752204</v>
+        <v>0.01701137806661156</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1091728046.446613</v>
+        <v>1061041750.6394</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1461071232960114</v>
+        <v>0.1163113742755808</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04223435342657456</v>
+        <v>0.04075349434303941</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3024096590.178544</v>
+        <v>3042417115.495364</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1369072379143871</v>
+        <v>0.1315917189545738</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03045485691526191</v>
+        <v>0.03066352005476805</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="n">
+        <v>204</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2766759861.299243</v>
+        <v>2312336481.561026</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1571145765853606</v>
+        <v>0.1301549351303904</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02617496455150632</v>
+        <v>0.02596465350541114</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1671594060.450637</v>
+        <v>1781866072.028282</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1072234727087233</v>
+        <v>0.1267218619845407</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04132262089850357</v>
+        <v>0.04400169801951065</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1900415158.49368</v>
+        <v>1554385340.571203</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1511362515308975</v>
+        <v>0.1821274901988441</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05681290887059377</v>
+        <v>0.0413525776976518</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1999364419.640786</v>
+        <v>2940836308.854308</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08097939326711957</v>
+        <v>0.09120333679988243</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03020013093132351</v>
+        <v>0.03593921715432126</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4638655232.745638</v>
+        <v>3418140981.123038</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1408835657935745</v>
+        <v>0.1233780918763387</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04648075207003299</v>
+        <v>0.0528415308280266</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>93</v>
+      </c>
+      <c r="J93" t="n">
+        <v>204</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2003067716.418663</v>
+        <v>1640340680.997142</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1068431136210746</v>
+        <v>0.135772710170724</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02872165640935431</v>
+        <v>0.0337747428084446</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1995516583.829533</v>
+        <v>2807934959.379305</v>
       </c>
       <c r="F95" t="n">
-        <v>0.116269821722526</v>
+        <v>0.09773818583596243</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03300881997861587</v>
+        <v>0.05116152300658745</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2328057844.427733</v>
+        <v>1987794805.344822</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1195311470043242</v>
+        <v>0.09374446041039797</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04423354725768232</v>
+        <v>0.03791557377198664</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4452508437.52833</v>
+        <v>3894529686.604486</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1241361940218707</v>
+        <v>0.1366837429345686</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02612605427182091</v>
+        <v>0.02747878157132957</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>99</v>
+      </c>
+      <c r="J97" t="n">
+        <v>205</v>
+      </c>
+      <c r="K97" t="n">
+        <v>116.5539086351364</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3577234351.62651</v>
+        <v>3574057155.20259</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09189261263667618</v>
+        <v>0.08064624357077947</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02566999242433234</v>
+        <v>0.02040543661025731</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>51</v>
+      </c>
+      <c r="J98" t="n">
+        <v>206</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3000986404.029341</v>
+        <v>2757935636.467454</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09186253834076653</v>
+        <v>0.1470857908854071</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03375528180782845</v>
+        <v>0.0267558592964122</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3118927274.259789</v>
+        <v>3183568443.973794</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1296916797429163</v>
+        <v>0.1401961046684877</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02342893083239479</v>
+        <v>0.01767382703319556</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>85</v>
+      </c>
+      <c r="J100" t="n">
+        <v>204</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2254861752.654487</v>
+        <v>3387778889.899867</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1489342458630049</v>
+        <v>0.1859074094223268</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0526824815773861</v>
+        <v>0.05308997790268426</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
